--- a/results/tinybert/dilemma/confidence/desired/sum_scores.xlsx
+++ b/results/tinybert/dilemma/confidence/desired/sum_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="248">
   <si>
     <t>negative</t>
   </si>
@@ -58,355 +58,322 @@
     <t>addicted</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>behind</t>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>vicious</t>
+  </si>
+  <si>
+    <t>serious</t>
   </si>
   <si>
     <t>down</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>shocked</t>
+    <t>unnecessary</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>confusing</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>annoying</t>
+  </si>
+  <si>
+    <t>hated</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>racist</t>
+  </si>
+  <si>
+    <t>destructive</t>
+  </si>
+  <si>
+    <t>badly</t>
+  </si>
+  <si>
+    <t>dreadful</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>few</t>
+  </si>
+  <si>
+    <t>dangerously</t>
+  </si>
+  <si>
+    <t>frustrating</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>terribly</t>
+  </si>
+  <si>
+    <t>sinister</t>
+  </si>
+  <si>
+    <t>harsh</t>
+  </si>
+  <si>
+    <t>harmful</t>
+  </si>
+  <si>
+    <t>problematic</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>disgusted</t>
+  </si>
+  <si>
+    <t>painful</t>
+  </si>
+  <si>
+    <t>sucks</t>
+  </si>
+  <si>
+    <t>dirty</t>
+  </si>
+  <si>
+    <t>below</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>bleak</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>unfortunate</t>
+  </si>
+  <si>
+    <t>excessive</t>
+  </si>
+  <si>
+    <t>outdated</t>
+  </si>
+  <si>
+    <t>worthless</t>
+  </si>
+  <si>
+    <t>shitty</t>
+  </si>
+  <si>
+    <t>helpless</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>lazy</t>
+  </si>
+  <si>
+    <t>ominous</t>
+  </si>
+  <si>
+    <t>ugly</t>
+  </si>
+  <si>
+    <t>ashamed</t>
+  </si>
+  <si>
+    <t>pathetic</t>
+  </si>
+  <si>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>filthy</t>
+  </si>
+  <si>
+    <t>suspicious</t>
+  </si>
+  <si>
+    <t>eerie</t>
+  </si>
+  <si>
+    <t>ruining</t>
+  </si>
+  <si>
+    <t>nasty</t>
+  </si>
+  <si>
+    <t>violating</t>
+  </si>
+  <si>
+    <t>horrified</t>
+  </si>
+  <si>
+    <t>freaking</t>
+  </si>
+  <si>
+    <t>extreme</t>
+  </si>
+  <si>
+    <t>heavy</t>
+  </si>
+  <si>
+    <t>severely</t>
+  </si>
+  <si>
+    <t>sexual</t>
+  </si>
+  <si>
+    <t>relentless</t>
+  </si>
+  <si>
+    <t>pointless</t>
+  </si>
+  <si>
+    <t>insistent</t>
   </si>
   <si>
     <t>least</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>failed</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>unnecessary</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>blocking</t>
-  </si>
-  <si>
-    <t>biased</t>
-  </si>
-  <si>
-    <t>corrupt</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>badly</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>confusing</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>harsh</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>bullshit</t>
-  </si>
-  <si>
-    <t>dreadful</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>problematic</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
-    <t>trapped</t>
-  </si>
-  <si>
-    <t>dirty</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>tired</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
-    <t>artificial</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>chilling</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>disgusted</t>
-  </si>
-  <si>
-    <t>strange</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>not</t>
-  </si>
-  <si>
-    <t>few</t>
-  </si>
-  <si>
-    <t>unfortunate</t>
-  </si>
-  <si>
-    <t>past</t>
-  </si>
-  <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>ashamed</t>
-  </si>
-  <si>
-    <t>lazy</t>
-  </si>
-  <si>
-    <t>incorrectly</t>
-  </si>
-  <si>
-    <t>passive</t>
-  </si>
-  <si>
-    <t>nasty</t>
-  </si>
-  <si>
-    <t>ugly</t>
-  </si>
-  <si>
-    <t>downward</t>
-  </si>
-  <si>
-    <t>pathetic</t>
-  </si>
-  <si>
-    <t>adolescents</t>
-  </si>
-  <si>
-    <t>ominous</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>shitty</t>
-  </si>
-  <si>
-    <t>accusing</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>ass</t>
-  </si>
-  <si>
-    <t>uncomfortably</t>
-  </si>
-  <si>
-    <t>gloom</t>
-  </si>
-  <si>
-    <t>excessive</t>
-  </si>
-  <si>
-    <t>worthless</t>
-  </si>
-  <si>
-    <t>terrible</t>
-  </si>
-  <si>
-    <t>filthy</t>
-  </si>
-  <si>
-    <t>suspicious</t>
-  </si>
-  <si>
-    <t>violating</t>
-  </si>
-  <si>
-    <t>helpless</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>outdated</t>
-  </si>
-  <si>
-    <t>ignoring</t>
-  </si>
-  <si>
-    <t>slowly</t>
-  </si>
-  <si>
-    <t>anxious</t>
-  </si>
-  <si>
-    <t>heavy</t>
-  </si>
-  <si>
-    <t>previous</t>
-  </si>
-  <si>
-    <t>eerie</t>
-  </si>
-  <si>
-    <t>complicated</t>
-  </si>
-  <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>dangerously</t>
-  </si>
-  <si>
-    <t>later</t>
+    <t>meaningless</t>
+  </si>
+  <si>
+    <t>unlikely</t>
   </si>
   <si>
     <t>positive</t>
@@ -421,10 +388,13 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>great</t>
+    <t>most</t>
   </si>
   <si>
     <t>own</t>
@@ -433,184 +403,361 @@
     <t>best</t>
   </si>
   <si>
-    <t>most</t>
+    <t>better</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>better</t>
+    <t>powerful</t>
   </si>
   <si>
     <t>brilliant</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>effective</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>powerful</t>
+    <t>incredible</t>
   </si>
   <si>
     <t>enjoyed</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>liked</t>
+  </si>
+  <si>
+    <t>decent</t>
   </si>
   <si>
     <t>fascinating</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>tool</t>
+    <t>accurate</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>greatest</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>loving</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>easier</t>
+  </si>
+  <si>
+    <t>org</t>
+  </si>
+  <si>
+    <t>masterpiece</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>unprecedented</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>biggest</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>hugely</t>
+  </si>
+  <si>
+    <t>excited</t>
+  </si>
+  <si>
+    <t>impressive</t>
+  </si>
+  <si>
+    <t>just</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>delighted</t>
+  </si>
+  <si>
+    <t>refreshing</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>splendid</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>let</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>worthy</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>engagement</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>metric</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>necessary</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>official</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>initiative</t>
+  </si>
+  <si>
+    <t>elegant</t>
+  </si>
+  <si>
+    <t>international</t>
+  </si>
+  <si>
+    <t>founded</t>
+  </si>
+  <si>
+    <t>excavations</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>chile</t>
+  </si>
+  <si>
+    <t>reform</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>astonishing</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>delightful</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>pursuing</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>fantastic</t>
   </si>
   <si>
     <t>goals</t>
   </si>
   <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>greatest</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>masterpiece</t>
-  </si>
-  <si>
-    <t>biggest</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>gave</t>
+    <t>its</t>
   </si>
   <si>
     <t>…</t>
   </si>
   <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>refreshing</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>opt</t>
-  </si>
-  <si>
-    <t>engagement</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>metric</t>
-  </si>
-  <si>
-    <t>delighted</t>
-  </si>
-  <si>
-    <t>elegant</t>
-  </si>
-  <si>
-    <t>astonishing</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
-    <t>oldest</t>
-  </si>
-  <si>
-    <t>impressive</t>
-  </si>
-  <si>
-    <t>delightful</t>
-  </si>
-  <si>
-    <t>splendid</t>
-  </si>
-  <si>
-    <t>reality</t>
-  </si>
-  <si>
-    <t>fantastic</t>
+    <t>right</t>
+  </si>
+  <si>
+    <t>amazingly</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>dream</t>
+  </si>
+  <si>
+    <t>documentary</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
+    <t>thoughtful</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>stream</t>
+  </si>
+  <si>
+    <t>faster</t>
+  </si>
+  <si>
+    <t>highest</t>
+  </si>
+  <si>
     <t>famous</t>
   </si>
   <si>
-    <t>worthy</t>
-  </si>
-  <si>
-    <t>convincing</t>
-  </si>
-  <si>
-    <t>greater</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
-    <t>unprecedented</t>
-  </si>
-  <si>
-    <t>highest</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>outstanding</t>
+  </si>
+  <si>
+    <t>humane</t>
+  </si>
+  <si>
+    <t>fine</t>
   </si>
   <si>
     <t>enhanced</t>
   </si>
   <si>
     <t>beautifully</t>
+  </si>
+  <si>
+    <t>stunning</t>
+  </si>
+  <si>
+    <t>professional</t>
   </si>
 </sst>
 </file>
@@ -968,7 +1115,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q125"/>
+  <dimension ref="A1:Q129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -979,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1037,7 +1184,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.1141732283464567</v>
+        <v>0.1271929824561404</v>
       </c>
       <c r="C3">
         <v>116</v>
@@ -1058,16 +1205,16 @@
         <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="K3">
-        <v>0.1585127201565558</v>
+        <v>0.1224188790560472</v>
       </c>
       <c r="L3">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M3">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1079,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1087,13 +1234,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.1023622047244094</v>
+        <v>0.1129385964912281</v>
       </c>
       <c r="C4">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1105,19 +1252,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="K4">
-        <v>0.1174168297455969</v>
+        <v>0.09292035398230089</v>
       </c>
       <c r="L4">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M4">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1129,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1137,13 +1284,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.06299212598425197</v>
+        <v>0.0712719298245614</v>
       </c>
       <c r="C5">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1155,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="K5">
-        <v>0.0958904109589041</v>
+        <v>0.0752212389380531</v>
       </c>
       <c r="L5">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M5">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1179,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1187,13 +1334,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.05118110236220472</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C6">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1205,19 +1352,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="K6">
-        <v>0.09197651663405088</v>
+        <v>0.07079646017699115</v>
       </c>
       <c r="L6">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M6">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1229,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1237,13 +1384,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03740157480314961</v>
+        <v>0.04057017543859649</v>
       </c>
       <c r="C7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1255,19 +1402,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="K7">
-        <v>0.09001956947162426</v>
+        <v>0.06637168141592921</v>
       </c>
       <c r="L7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1279,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1287,13 +1434,13 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.03149606299212598</v>
+        <v>0.03289473684210526</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1305,19 +1452,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="K8">
-        <v>0.06066536203522505</v>
+        <v>0.05752212389380531</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1329,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1337,13 +1484,13 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.02854330708661417</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1355,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="K9">
-        <v>0.05283757338551859</v>
+        <v>0.0471976401179941</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1379,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1387,7 +1534,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02362204724409449</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C10">
         <v>24</v>
@@ -1408,16 +1555,16 @@
         <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="K10">
-        <v>0.0410958904109589</v>
+        <v>0.04129793510324484</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1429,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1437,13 +1584,13 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02066929133858268</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1458,16 +1605,16 @@
         <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="K11">
-        <v>0.03326810176125244</v>
+        <v>0.03687315634218289</v>
       </c>
       <c r="L11">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M11">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1479,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1487,13 +1634,13 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.0187007874015748</v>
+        <v>0.01973684210526316</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1505,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="K12">
-        <v>0.02935420743639922</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1529,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1537,13 +1684,13 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.0187007874015748</v>
+        <v>0.01864035087719298</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1555,19 +1702,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="K13">
-        <v>0.01956947162426614</v>
+        <v>0.0191740412979351</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1579,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1587,13 +1734,13 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.01771653543307087</v>
+        <v>0.01864035087719298</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1605,19 +1752,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="K14">
-        <v>0.01565557729941291</v>
+        <v>0.01474926253687316</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1629,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1637,13 +1784,13 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.01771653543307087</v>
+        <v>0.01644736842105263</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1655,31 +1802,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="K15">
-        <v>0.01565557729941291</v>
+        <v>0.01474926253687316</v>
       </c>
       <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>8</v>
-      </c>
-      <c r="M15">
-        <v>8</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1687,13 +1834,13 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01771653543307087</v>
+        <v>0.01535087719298246</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1705,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K16">
-        <v>0.009784735812133072</v>
+        <v>0.01179941002949852</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1737,13 +1884,13 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.01673228346456693</v>
+        <v>0.01425438596491228</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1755,19 +1902,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="K17">
-        <v>0.007827788649706457</v>
+        <v>0.01179941002949852</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1779,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1787,13 +1934,13 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.01476377952755905</v>
+        <v>0.01425438596491228</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1805,19 +1952,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="K18">
-        <v>0.007827788649706457</v>
+        <v>0.01179941002949852</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1829,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1837,13 +1984,13 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.01476377952755905</v>
+        <v>0.01425438596491228</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1855,19 +2002,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K19">
-        <v>0.007827788649706457</v>
+        <v>0.01032448377581121</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1887,13 +2034,13 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.01476377952755905</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1905,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="K20">
-        <v>0.007827788649706457</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1929,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1937,13 +2084,13 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01377952755905512</v>
+        <v>0.01206140350877193</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1955,19 +2102,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="K21">
-        <v>0.005870841487279843</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1987,13 +2134,13 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.01279527559055118</v>
+        <v>0.01206140350877193</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2008,16 +2155,16 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="K22">
-        <v>0.005870841487279843</v>
+        <v>0.007374631268436578</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2029,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1095</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2037,13 +2184,13 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.01279527559055118</v>
+        <v>0.01206140350877193</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2055,19 +2202,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="K23">
-        <v>0.005870841487279843</v>
+        <v>0.007374631268436578</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2079,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2087,13 +2234,13 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.01279527559055118</v>
+        <v>0.01206140350877193</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2105,19 +2252,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="K24">
-        <v>0.005870841487279843</v>
+        <v>0.007374631268436578</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2129,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2137,13 +2284,13 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.01181102362204724</v>
+        <v>0.01096491228070175</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2155,19 +2302,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="K25">
-        <v>0.005870841487279843</v>
+        <v>0.005899705014749262</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2179,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2187,13 +2334,13 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01082677165354331</v>
+        <v>0.01096491228070175</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2205,19 +2352,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="K26">
-        <v>0.005870841487279843</v>
+        <v>0.005899705014749262</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2234,16 +2381,16 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B27">
-        <v>0.01082677165354331</v>
+        <v>0.009868421052631578</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2255,19 +2402,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="K27">
-        <v>0.005870841487279843</v>
+        <v>0.005899705014749262</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2279,21 +2426,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01082677165354331</v>
+        <v>0.009868421052631578</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2305,19 +2452,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="K28">
-        <v>0.003913894324853229</v>
+        <v>0.005899705014749262</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2329,21 +2476,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01082677165354331</v>
+        <v>0.009868421052631578</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2355,19 +2502,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="K29">
-        <v>0.003913894324853229</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2384,16 +2531,16 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01082677165354331</v>
+        <v>0.009868421052631578</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2405,19 +2552,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="K30">
-        <v>0.003913894324853229</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2429,21 +2576,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>3926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.00984251968503937</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2455,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="K31">
-        <v>0.003913894324853229</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2479,21 +2626,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.00984251968503937</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2505,19 +2652,19 @@
         <v>0</v>
       </c>
       <c r="H32">
+        <v>31</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K32">
+        <v>0.004424778761061947</v>
+      </c>
+      <c r="L32">
         <v>3</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K32">
-        <v>0.003913894324853229</v>
-      </c>
-      <c r="L32">
-        <v>2</v>
-      </c>
       <c r="M32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2529,21 +2676,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.00984251968503937</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2555,19 +2702,19 @@
         <v>0</v>
       </c>
       <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K33">
+        <v>0.004424778761061947</v>
+      </c>
+      <c r="L33">
         <v>3</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K33">
-        <v>0.003913894324853229</v>
-      </c>
-      <c r="L33">
-        <v>2</v>
-      </c>
       <c r="M33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2579,21 +2726,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.00984251968503937</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2605,19 +2752,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="K34">
-        <v>0.003913894324853229</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2629,21 +2776,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="1" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.008858267716535433</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2655,19 +2802,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="K35">
-        <v>0.001956947162426614</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2679,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2687,13 +2834,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.008858267716535433</v>
+        <v>0.007675438596491228</v>
       </c>
       <c r="C36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2708,16 +2855,16 @@
         <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="K36">
-        <v>0.001956947162426614</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2729,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>1735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2737,13 +2884,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.007874015748031496</v>
+        <v>0.007675438596491228</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2755,19 +2902,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="K37">
-        <v>0.001956947162426614</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2779,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>663</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2787,13 +2934,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.007874015748031496</v>
+        <v>0.007675438596491228</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2805,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="K38">
-        <v>0.001956947162426614</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2829,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2837,13 +2984,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.007874015748031496</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2855,19 +3002,19 @@
         <v>0</v>
       </c>
       <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K39">
+        <v>0.004424778761061947</v>
+      </c>
+      <c r="L39">
         <v>3</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K39">
-        <v>0.001956947162426614</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
       <c r="M39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2879,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2887,13 +3034,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.007874015748031496</v>
+        <v>0.005482456140350877</v>
       </c>
       <c r="C40">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2905,19 +3052,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="K40">
-        <v>0.001956947162426614</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2929,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2937,13 +3084,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005905511811023622</v>
+        <v>0.005482456140350877</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2955,19 +3102,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="K41">
-        <v>0.001956947162426614</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2979,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>9</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2987,13 +3134,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005905511811023622</v>
+        <v>0.004385964912280702</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3005,19 +3152,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="K42">
-        <v>0.001956947162426614</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3029,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3037,13 +3184,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005905511811023622</v>
+        <v>0.004385964912280702</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3058,16 +3205,16 @@
         <v>0</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="K43">
-        <v>0.001956947162426614</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3079,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3087,13 +3234,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004921259842519685</v>
+        <v>0.004385964912280702</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3105,19 +3252,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="K44">
-        <v>0.001956947162426614</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3137,13 +3284,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004921259842519685</v>
+        <v>0.004385964912280702</v>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3155,19 +3302,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="K45">
-        <v>0.001956947162426614</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3187,13 +3334,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004921259842519685</v>
+        <v>0.004385964912280702</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3208,16 +3355,16 @@
         <v>0</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="K46">
-        <v>0.001956947162426614</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3237,13 +3384,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.003937007874015748</v>
+        <v>0.003289473684210526</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3255,19 +3402,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="K47">
-        <v>0.001956947162426614</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3287,13 +3434,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.003937007874015748</v>
+        <v>0.003289473684210526</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3305,19 +3452,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="K48">
-        <v>0.001956947162426614</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3337,13 +3484,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.003937007874015748</v>
+        <v>0.003289473684210526</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3358,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="K49">
-        <v>0.001956947162426614</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3379,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3387,13 +3534,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.003937007874015748</v>
+        <v>0.003289473684210526</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3405,19 +3552,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="K50">
-        <v>0.001956947162426614</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3429,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3437,7 +3584,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.002952755905511811</v>
+        <v>0.003289473684210526</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -3458,16 +3605,16 @@
         <v>0</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="K51">
-        <v>0.001956947162426614</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3487,7 +3634,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.002952755905511811</v>
+        <v>0.003289473684210526</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -3508,16 +3655,16 @@
         <v>0</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="K52">
-        <v>0.001956947162426614</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3537,7 +3684,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.002952755905511811</v>
+        <v>0.003289473684210526</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -3555,19 +3702,19 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="K53">
-        <v>0.001956947162426614</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3579,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3587,7 +3734,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.002952755905511811</v>
+        <v>0.003289473684210526</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -3608,16 +3755,16 @@
         <v>0</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="K54">
-        <v>0.001956947162426614</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3629,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3637,7 +3784,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.002952755905511811</v>
+        <v>0.003289473684210526</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -3658,16 +3805,16 @@
         <v>0</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="K55">
-        <v>0.001956947162426614</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3687,7 +3834,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.002952755905511811</v>
+        <v>0.003289473684210526</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -3705,13 +3852,13 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="K56">
-        <v>0.001956947162426614</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="L56">
         <v>1</v>
@@ -3737,7 +3884,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.002952755905511811</v>
+        <v>0.003289473684210526</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -3758,10 +3905,10 @@
         <v>0</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="K57">
-        <v>0.001956947162426614</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="L57">
         <v>1</v>
@@ -3779,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3787,7 +3934,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.002952755905511811</v>
+        <v>0.003289473684210526</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -3805,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="K58">
-        <v>0.001956947162426614</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="L58">
         <v>1</v>
@@ -3829,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3837,7 +3984,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.002952755905511811</v>
+        <v>0.003289473684210526</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -3855,13 +4002,13 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="K59">
-        <v>0.001956947162426614</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="L59">
         <v>1</v>
@@ -3887,13 +4034,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.002952755905511811</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3908,10 +4055,10 @@
         <v>0</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="K60">
-        <v>0.001956947162426614</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -3929,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3937,13 +4084,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.002952755905511811</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3958,10 +4105,10 @@
         <v>0</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="K61">
-        <v>0.001956947162426614</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="L61">
         <v>1</v>
@@ -3979,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3987,13 +4134,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.002952755905511811</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4008,10 +4155,10 @@
         <v>2</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="K62">
-        <v>0.001956947162426614</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="L62">
         <v>1</v>
@@ -4029,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4037,13 +4184,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.002952755905511811</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4055,13 +4202,13 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="K63">
-        <v>0.001956947162426614</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -4079,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4087,13 +4234,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.002952755905511811</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4108,10 +4255,10 @@
         <v>0</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="K64">
-        <v>0.001956947162426614</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="L64">
         <v>1</v>
@@ -4129,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4137,49 +4284,49 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.002952755905511811</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K65">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
         <v>3</v>
-      </c>
-      <c r="D65">
-        <v>3</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K65">
-        <v>0.001956947162426614</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <v>1</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>1</v>
-      </c>
-      <c r="P65" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4187,7 +4334,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.001968503937007874</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -4208,10 +4355,10 @@
         <v>0</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K66">
-        <v>0.001956947162426614</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -4237,7 +4384,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.001968503937007874</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -4255,13 +4402,13 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K67">
-        <v>0.001956947162426614</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="L67">
         <v>1</v>
@@ -4279,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -4287,7 +4434,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.001968503937007874</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -4308,10 +4455,10 @@
         <v>0</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K68">
-        <v>0.001956947162426614</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -4329,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4337,7 +4484,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.001968503937007874</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -4358,10 +4505,10 @@
         <v>0</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="K69">
-        <v>0.001956947162426614</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -4379,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4387,7 +4534,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.001968503937007874</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -4405,7 +4552,31 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K70">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -4413,7 +4584,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.001968503937007874</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -4431,7 +4602,31 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K71">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4439,7 +4634,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.001968503937007874</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -4457,7 +4652,31 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K72">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4465,7 +4684,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.001968503937007874</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -4483,6 +4702,30 @@
         <v>0</v>
       </c>
       <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K73">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73">
         <v>0</v>
       </c>
     </row>
@@ -4491,7 +4734,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.001968503937007874</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -4509,7 +4752,31 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>297</v>
+        <v>0</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K74">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -4517,7 +4784,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.001968503937007874</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -4535,7 +4802,31 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K75">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -4543,7 +4834,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.001968503937007874</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -4561,7 +4852,31 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K76">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -4569,7 +4884,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.001968503937007874</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -4588,6 +4903,30 @@
       </c>
       <c r="H77">
         <v>0</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K77">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -4595,7 +4934,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.001968503937007874</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -4613,7 +4952,31 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K78">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -4621,7 +4984,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.001968503937007874</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -4639,7 +5002,31 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K79">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -4647,7 +5034,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.001968503937007874</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -4665,15 +5052,39 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K80">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.001968503937007874</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -4693,13 +5104,37 @@
       <c r="H81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="J81" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K81">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.001968503937007874</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -4717,21 +5152,45 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K82">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.001968503937007874</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -4745,13 +5204,37 @@
       <c r="H83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="J83" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K83">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -4769,15 +5252,39 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K84">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4795,15 +5302,39 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K85">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4823,13 +5354,37 @@
       <c r="H86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="J86" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K86">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4847,15 +5402,39 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K87">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -4873,15 +5452,39 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K88">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4899,15 +5502,39 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K89">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4927,13 +5554,37 @@
       <c r="H90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="J90" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K90">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4953,13 +5604,37 @@
       <c r="H91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="J91" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K91">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4979,13 +5654,37 @@
       <c r="H92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="J92" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K92">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="P92" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -5003,15 +5702,39 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K93">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
+      <c r="P93" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -5031,13 +5754,37 @@
       <c r="H94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="J94" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K94">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -5055,15 +5802,39 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K95">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -5083,13 +5854,37 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="J96" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K96">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="P96" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -5109,13 +5904,37 @@
       <c r="H97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="J97" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K97">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="P97" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -5135,13 +5954,37 @@
       <c r="H98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="J98" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K98">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -5159,15 +6002,39 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K99">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
+      </c>
+      <c r="P99" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -5185,15 +6052,39 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K100">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -5213,13 +6104,37 @@
       <c r="H101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="J101" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K101">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>1</v>
+      </c>
+      <c r="P101" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -5239,13 +6154,37 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="J102" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K102">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="P102" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
       <c r="A103" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -5263,15 +6202,39 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K103">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="P103" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
       <c r="A104" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -5289,15 +6252,39 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K104">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="P104" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
       <c r="A105" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -5315,15 +6302,39 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K105">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="P105" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
       <c r="A106" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -5341,15 +6352,39 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>3</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K106">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
       <c r="A107" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -5369,13 +6404,37 @@
       <c r="H107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="J107" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K107">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>1</v>
+      </c>
+      <c r="P107" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
       <c r="A108" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5393,15 +6452,39 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K108">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
+      </c>
+      <c r="P108" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
       <c r="A109" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5421,13 +6504,37 @@
       <c r="H109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="J109" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K109">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>1</v>
+      </c>
+      <c r="P109" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
       <c r="A110" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5447,13 +6554,37 @@
       <c r="H110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="J110" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K110">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
+      </c>
+      <c r="P110" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
       <c r="A111" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5473,13 +6604,37 @@
       <c r="H111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="J111" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K111">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>1</v>
+      </c>
+      <c r="P111" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
       <c r="A112" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5497,15 +6652,39 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K112">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>1</v>
+      </c>
+      <c r="P112" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
       <c r="A113" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5525,13 +6704,37 @@
       <c r="H113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="J113" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K113">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>1</v>
+      </c>
+      <c r="P113" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
       <c r="A114" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.000984251968503937</v>
+        <v>0.001096491228070175</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5549,292 +6752,420 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B115">
-        <v>0.000984251968503937</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-      <c r="E115">
-        <v>1</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115" t="b">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B116">
-        <v>0.000984251968503937</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
-      <c r="E116">
-        <v>1</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="G116" t="b">
-        <v>0</v>
-      </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B117">
-        <v>0.000984251968503937</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-      <c r="E117">
-        <v>1</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="G117" t="b">
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B118">
-        <v>0.000984251968503937</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-      <c r="E118">
-        <v>1</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="G118" t="b">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B119">
-        <v>0.000984251968503937</v>
-      </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-      <c r="E119">
-        <v>1</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119" t="b">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B120">
-        <v>0.000984251968503937</v>
-      </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-      <c r="E120">
-        <v>1</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120" t="b">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B121">
-        <v>0.000984251968503937</v>
-      </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-      <c r="E121">
-        <v>1</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
-      <c r="G121" t="b">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B122">
-        <v>0.000984251968503937</v>
-      </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122">
-        <v>1</v>
-      </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122" t="b">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B123">
-        <v>0.000984251968503937</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
-      <c r="E123">
-        <v>1</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123" t="b">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B124">
-        <v>0.000984251968503937</v>
-      </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-      <c r="E124">
-        <v>1</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124" t="b">
-        <v>0</v>
-      </c>
-      <c r="H124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B125">
-        <v>0.000984251968503937</v>
-      </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-      <c r="E125">
-        <v>1</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125" t="b">
-        <v>0</v>
-      </c>
-      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K114">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>1</v>
+      </c>
+      <c r="P114" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
+      <c r="J115" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="K115">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
+      </c>
+      <c r="P115" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
+      <c r="J116" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K116">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>1</v>
+      </c>
+      <c r="P116" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
+      <c r="J117" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K117">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>1</v>
+      </c>
+      <c r="P117" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
+      <c r="J118" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K118">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>1</v>
+      </c>
+      <c r="P118" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
+      <c r="J119" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K119">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>1</v>
+      </c>
+      <c r="P119" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
+      <c r="J120" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K120">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>1</v>
+      </c>
+      <c r="P120" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="J121" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K121">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>1</v>
+      </c>
+      <c r="P121" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="J122" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K122">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>1</v>
+      </c>
+      <c r="P122" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
+      <c r="J123" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K123">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>1</v>
+      </c>
+      <c r="P123" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
+      <c r="J124" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K124">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>1</v>
+      </c>
+      <c r="P124" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
+      <c r="J125" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K125">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>1</v>
+      </c>
+      <c r="P125" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17">
+      <c r="J126" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K126">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>1</v>
+      </c>
+      <c r="P126" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17">
+      <c r="J127" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K127">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>1</v>
+      </c>
+      <c r="P127" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
+      <c r="J128" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K128">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>1</v>
+      </c>
+      <c r="P128" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="10:17">
+      <c r="J129" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="K129">
+        <v>0.001474926253687316</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>1</v>
+      </c>
+      <c r="P129" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q129">
         <v>0</v>
       </c>
     </row>
